--- a/WasteCapacityCalculator.xlsx
+++ b/WasteCapacityCalculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Schools_Colleges\BVCOEW\BE\AakrutiGlobal2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5961A-4C54-461C-AB31-809FFE2A52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045B492-EFE2-47E9-BD9B-076F1AA7612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C413B8DA-37A9-459E-B63C-BF8FACFD34EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CompostCapacity" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>small</t>
   </si>
@@ -64,13 +65,106 @@
   </si>
   <si>
     <t>Capacity of Composter</t>
+  </si>
+  <si>
+    <t>Waste Input</t>
+  </si>
+  <si>
+    <t>Input Hatch and Motor</t>
+  </si>
+  <si>
+    <t>Waste Bin</t>
+  </si>
+  <si>
+    <t>Robotic Arm Picking and Conveyor Belt</t>
+  </si>
+  <si>
+    <t>Robotic Arm</t>
+  </si>
+  <si>
+    <t>Conveyor Belt</t>
+  </si>
+  <si>
+    <t>Motor and Control System</t>
+  </si>
+  <si>
+    <t>Disentangling</t>
+  </si>
+  <si>
+    <t>IR Scanner</t>
+  </si>
+  <si>
+    <t>Cutting Mechanism(Blades and Motor)</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Magnetic Separation</t>
+  </si>
+  <si>
+    <t>Electric Magnet</t>
+  </si>
+  <si>
+    <t>Movable Aerial Shift</t>
+  </si>
+  <si>
+    <t>Thermal Imaging (Segregation)</t>
+  </si>
+  <si>
+    <t>Thermal Image Cameras</t>
+  </si>
+  <si>
+    <t>Temperature Profiling System</t>
+  </si>
+  <si>
+    <t>If req in composting</t>
+  </si>
+  <si>
+    <t>Actuators/Diverters</t>
+  </si>
+  <si>
+    <t>not found link</t>
+  </si>
+  <si>
+    <t>Composting Unit</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Mixing Blades and Mechanism</t>
+  </si>
+  <si>
+    <t>Air Filter</t>
+  </si>
+  <si>
+    <t>Additive Loft</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>substitute teracota for waste bins</t>
+  </si>
+  <si>
+    <t>Miscellaneous Cost</t>
+  </si>
+  <si>
+    <t>include all 3 capacities in the budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +174,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,16 +205,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,4 +641,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CD61-CCED-4EED-B441-79410D5B69AC}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <f>40000*2</f>
+        <v>80000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>